--- a/tests/artifact/script/AddProductPage.xlsx
+++ b/tests/artifact/script/AddProductPage.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Login" sheetId="10" r:id="rId2"/>
-    <sheet name="AddProduct" sheetId="9" r:id="rId3"/>
+    <sheet name="Testing" sheetId="12" r:id="rId3"/>
+    <sheet name="AddProduct" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="844">
   <si>
     <t>target</t>
   </si>
@@ -2315,6 +2316,9 @@
 password=${password}</t>
   </si>
   <si>
+    <t>5000</t>
+  </si>
+  <si>
     <t>Navigating to Business Page</t>
   </si>
   <si>
@@ -2348,6 +2352,15 @@
     <t>${Validate.BusinessPage}</t>
   </si>
   <si>
+    <t>Now fetch the data from the business comlumn</t>
+  </si>
+  <si>
+    <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|columnSortComparision)</t>
+  </si>
+  <si>
+    <t>rowsOfColumn=${columnBusiness}</t>
+  </si>
+  <si>
     <t>click on add button in Contact page</t>
   </si>
   <si>
@@ -2577,9 +2590,6 @@
   </si>
   <si>
     <t>${Save.Button}</t>
-  </si>
-  <si>
-    <t>5000</t>
   </si>
   <si>
     <t>Then user should click ok button</t>
@@ -2591,12 +2601,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2663,31 +2673,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2702,40 +2690,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2755,6 +2712,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2763,10 +2760,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2785,14 +2789,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -2802,6 +2798,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2828,49 +2838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2882,55 +2850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,7 +2880,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2966,13 +2958,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2984,7 +2994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2996,19 +3018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3053,6 +3063,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3063,6 +3106,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3078,30 +3136,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3125,43 +3159,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3170,68 +3171,101 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3240,62 +3274,38 @@
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3338,14 +3348,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3472,66 +3482,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3547,11 +3561,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6506,12 +6520,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A37"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6674,12 +6688,3087 @@
       <c r="N5" s="48"/>
       <c r="O5" s="39"/>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="1:15">
+    <row r="6" customFormat="1" ht="41" customHeight="1" spans="1:15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="F7" s="30">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="39"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>764</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="26"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="26"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="26"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="26"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="26"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="26"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:15">
+      <c r="A23" s="26"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="39"/>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="26"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="39"/>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="26"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="1:15">
+      <c r="A27" s="26"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="26"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="26"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="26"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="39"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:15">
+      <c r="A33" s="26"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="26"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="26"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="39"/>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="26"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="26"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="39"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="26"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="39"/>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:15">
+      <c r="A39" s="26"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="39"/>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="26"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="39"/>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:15">
+      <c r="A41" s="26"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="39"/>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:15">
+      <c r="A42" s="26"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="26"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="39"/>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="26"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:15">
+      <c r="A45" s="26"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="26"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="39"/>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="26"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="39"/>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="26"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="39"/>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:15">
+      <c r="A49" s="26"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="39"/>
+    </row>
+    <row r="50" ht="23" customHeight="1" spans="1:15">
+      <c r="A50" s="26"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="39"/>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="26"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="39"/>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="26"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="39"/>
+    </row>
+    <row r="53" ht="23" customHeight="1" spans="1:15">
+      <c r="A53" s="26"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="26"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="39"/>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="26"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="39"/>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="26"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="39"/>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="26"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="39"/>
+    </row>
+    <row r="58" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="26"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="39"/>
+    </row>
+    <row r="59" ht="23" customHeight="1" spans="1:15">
+      <c r="A59" s="26"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="39"/>
+    </row>
+    <row r="60" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="26"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="39"/>
+    </row>
+    <row r="61" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="26"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="39"/>
+    </row>
+    <row r="62" ht="23" customHeight="1" spans="1:15">
+      <c r="A62" s="26"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="39"/>
+    </row>
+    <row r="63" ht="23" customHeight="1" spans="1:15">
+      <c r="A63" s="26"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="39"/>
+    </row>
+    <row r="64" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="26"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="39"/>
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:15">
+      <c r="A65" s="26"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="39"/>
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:15">
+      <c r="A66" s="26"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="39"/>
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="26"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="39"/>
+    </row>
+    <row r="68" ht="23" customHeight="1" spans="1:15">
+      <c r="A68" s="26"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="39"/>
+    </row>
+    <row r="69" ht="23" customHeight="1" spans="1:15">
+      <c r="A69" s="26"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="39"/>
+    </row>
+    <row r="70" ht="23" customHeight="1" spans="1:15">
+      <c r="A70" s="26"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="39"/>
+    </row>
+    <row r="71" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="26"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="39"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="26"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="39"/>
+    </row>
+    <row r="73" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="26"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="39"/>
+    </row>
+    <row r="74" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="26"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="39"/>
+    </row>
+    <row r="75" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="26"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="39"/>
+    </row>
+    <row r="76" ht="23" customHeight="1" spans="1:15">
+      <c r="A76" s="26"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="39"/>
+    </row>
+    <row r="77" ht="23" customHeight="1" spans="1:15">
+      <c r="A77" s="26"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="39"/>
+    </row>
+    <row r="78" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="26"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="39"/>
+    </row>
+    <row r="79" ht="23" customHeight="1" spans="1:15">
+      <c r="A79" s="26"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="39"/>
+    </row>
+    <row r="80" ht="23" customHeight="1" spans="1:15">
+      <c r="A80" s="26"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="39"/>
+    </row>
+    <row r="81" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="26"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="39"/>
+    </row>
+    <row r="82" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="26"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="39"/>
+    </row>
+    <row r="83" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="26"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="39"/>
+    </row>
+    <row r="84" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="26"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="39"/>
+    </row>
+    <row r="85" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="26"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="39"/>
+    </row>
+    <row r="86" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="26"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="39"/>
+    </row>
+    <row r="87" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="26"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="39"/>
+    </row>
+    <row r="88" ht="23" customHeight="1" spans="1:15">
+      <c r="A88" s="26"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="39"/>
+    </row>
+    <row r="89" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="26"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="39"/>
+    </row>
+    <row r="90" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="26"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="39"/>
+    </row>
+    <row r="91" ht="23" customHeight="1" spans="1:15">
+      <c r="A91" s="26"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="39"/>
+    </row>
+    <row r="92" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="26"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="39"/>
+    </row>
+    <row r="93" ht="23" customHeight="1" spans="1:15">
+      <c r="A93" s="26"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="39"/>
+    </row>
+    <row r="94" ht="23" customHeight="1" spans="1:15">
+      <c r="A94" s="26"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="39"/>
+    </row>
+    <row r="95" ht="23" customHeight="1" spans="1:15">
+      <c r="A95" s="26"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="39"/>
+    </row>
+    <row r="96" ht="23" customHeight="1" spans="1:15">
+      <c r="A96" s="26"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="39"/>
+    </row>
+    <row r="97" ht="23" customHeight="1" spans="1:15">
+      <c r="A97" s="26"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="48"/>
+      <c r="O97" s="39"/>
+    </row>
+    <row r="98" ht="23" customHeight="1" spans="1:15">
+      <c r="A98" s="26"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="39"/>
+    </row>
+    <row r="99" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="26"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="48"/>
+      <c r="O99" s="39"/>
+    </row>
+    <row r="100" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="26"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="39"/>
+    </row>
+    <row r="101" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="26"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="48"/>
+      <c r="O101" s="39"/>
+    </row>
+    <row r="102" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="26"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="48"/>
+      <c r="O102" s="39"/>
+    </row>
+    <row r="103" ht="23" customHeight="1" spans="1:15">
+      <c r="A103" s="26"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="48"/>
+      <c r="O103" s="39"/>
+    </row>
+    <row r="104" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="26"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="48"/>
+      <c r="O104" s="39"/>
+    </row>
+    <row r="105" ht="23" customHeight="1" spans="1:15">
+      <c r="A105" s="26"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="48"/>
+      <c r="O105" s="39"/>
+    </row>
+    <row r="106" ht="23" customHeight="1" spans="1:15">
+      <c r="A106" s="26"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="39"/>
+    </row>
+    <row r="107" ht="23" customHeight="1" spans="1:15">
+      <c r="A107" s="26"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="48"/>
+      <c r="O107" s="39"/>
+    </row>
+    <row r="108" ht="23" customHeight="1" spans="1:15">
+      <c r="A108" s="26"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="48"/>
+      <c r="O108" s="39"/>
+    </row>
+    <row r="109" ht="23" customHeight="1" spans="1:15">
+      <c r="A109" s="26"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="39"/>
+    </row>
+    <row r="110" ht="23" customHeight="1" spans="1:15">
+      <c r="A110" s="26"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="39"/>
+    </row>
+    <row r="111" ht="23" customHeight="1" spans="1:15">
+      <c r="A111" s="26"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="48"/>
+      <c r="O111" s="39"/>
+    </row>
+    <row r="112" ht="23" customHeight="1" spans="1:15">
+      <c r="A112" s="26"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="48"/>
+      <c r="O112" s="39"/>
+    </row>
+    <row r="113" ht="23" customHeight="1" spans="1:15">
+      <c r="A113" s="26"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="48"/>
+      <c r="O113" s="39"/>
+    </row>
+    <row r="114" ht="23" customHeight="1" spans="1:15">
+      <c r="A114" s="26"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="48"/>
+      <c r="O114" s="39"/>
+    </row>
+    <row r="115" ht="23" customHeight="1" spans="1:15">
+      <c r="A115" s="26"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="48"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="48"/>
+      <c r="O115" s="39"/>
+    </row>
+    <row r="116" ht="23" customHeight="1" spans="1:15">
+      <c r="A116" s="26"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="47"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="48"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="48"/>
+      <c r="O116" s="39"/>
+    </row>
+    <row r="117" ht="23" customHeight="1" spans="1:15">
+      <c r="A117" s="26"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="48"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="48"/>
+      <c r="O117" s="39"/>
+    </row>
+    <row r="118" ht="23" customHeight="1" spans="1:15">
+      <c r="A118" s="26"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="48"/>
+      <c r="O118" s="39"/>
+    </row>
+    <row r="119" ht="23" customHeight="1" spans="1:15">
+      <c r="A119" s="26"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="48"/>
+      <c r="O119" s="39"/>
+    </row>
+    <row r="120" ht="23" customHeight="1" spans="1:15">
+      <c r="A120" s="26"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="48"/>
+      <c r="M120" s="49"/>
+      <c r="N120" s="48"/>
+      <c r="O120" s="39"/>
+    </row>
+    <row r="121" ht="23" customHeight="1" spans="1:15">
+      <c r="A121" s="26"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="48"/>
+      <c r="M121" s="49"/>
+      <c r="N121" s="48"/>
+      <c r="O121" s="39"/>
+    </row>
+    <row r="122" ht="23" customHeight="1" spans="1:15">
+      <c r="A122" s="26"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="47"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="49"/>
+      <c r="N122" s="48"/>
+      <c r="O122" s="39"/>
+    </row>
+    <row r="123" ht="23" customHeight="1" spans="1:15">
+      <c r="A123" s="26"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="47"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="48"/>
+      <c r="M123" s="49"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="39"/>
+    </row>
+    <row r="124" ht="23" customHeight="1" spans="1:15">
+      <c r="A124" s="26"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="48"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="48"/>
+      <c r="O124" s="39"/>
+    </row>
+    <row r="125" ht="23" customHeight="1" spans="1:15">
+      <c r="A125" s="26"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="48"/>
+      <c r="M125" s="49"/>
+      <c r="N125" s="48"/>
+      <c r="O125" s="39"/>
+    </row>
+    <row r="126" ht="23" customHeight="1" spans="1:15">
+      <c r="A126" s="26"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="47"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="48"/>
+      <c r="M126" s="49"/>
+      <c r="N126" s="48"/>
+      <c r="O126" s="39"/>
+    </row>
+    <row r="127" ht="23" customHeight="1" spans="1:15">
+      <c r="A127" s="26"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="48"/>
+      <c r="M127" s="49"/>
+      <c r="N127" s="48"/>
+      <c r="O127" s="39"/>
+    </row>
+    <row r="128" ht="23" customHeight="1" spans="1:15">
+      <c r="A128" s="26"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="48"/>
+      <c r="M128" s="49"/>
+      <c r="N128" s="48"/>
+      <c r="O128" s="39"/>
+    </row>
+    <row r="129" ht="23" customHeight="1" spans="1:15">
+      <c r="A129" s="26"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="48"/>
+      <c r="M129" s="49"/>
+      <c r="N129" s="48"/>
+      <c r="O129" s="39"/>
+    </row>
+    <row r="130" ht="23" customHeight="1" spans="1:15">
+      <c r="A130" s="26"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="48"/>
+      <c r="M130" s="49"/>
+      <c r="N130" s="48"/>
+      <c r="O130" s="39"/>
+    </row>
+    <row r="131" ht="23" customHeight="1" spans="1:15">
+      <c r="A131" s="26"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="48"/>
+      <c r="M131" s="49"/>
+      <c r="N131" s="48"/>
+      <c r="O131" s="39"/>
+    </row>
+    <row r="132" ht="23" customHeight="1" spans="1:15">
+      <c r="A132" s="26"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="48"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="48"/>
+      <c r="O132" s="39"/>
+    </row>
+    <row r="133" ht="23" customHeight="1" spans="1:15">
+      <c r="A133" s="26"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="48"/>
+      <c r="M133" s="49"/>
+      <c r="N133" s="48"/>
+      <c r="O133" s="39"/>
+    </row>
+    <row r="134" ht="23" customHeight="1" spans="1:15">
+      <c r="A134" s="26"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="48"/>
+      <c r="M134" s="49"/>
+      <c r="N134" s="48"/>
+      <c r="O134" s="39"/>
+    </row>
+    <row r="135" ht="23" customHeight="1" spans="1:15">
+      <c r="A135" s="26"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="48"/>
+      <c r="M135" s="49"/>
+      <c r="N135" s="48"/>
+      <c r="O135" s="39"/>
+    </row>
+    <row r="136" ht="23" customHeight="1" spans="1:15">
+      <c r="A136" s="26"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="48"/>
+      <c r="M136" s="49"/>
+      <c r="N136" s="48"/>
+      <c r="O136" s="39"/>
+    </row>
+    <row r="137" ht="23" customHeight="1" spans="1:15">
+      <c r="A137" s="26"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="48"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="48"/>
+      <c r="O137" s="39"/>
+    </row>
+    <row r="138" ht="23" customHeight="1" spans="1:15">
+      <c r="A138" s="26"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="47"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="48"/>
+      <c r="M138" s="49"/>
+      <c r="N138" s="48"/>
+      <c r="O138" s="39"/>
+    </row>
+    <row r="139" ht="23" customHeight="1" spans="1:15">
+      <c r="A139" s="26"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="47"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="48"/>
+      <c r="M139" s="49"/>
+      <c r="N139" s="48"/>
+      <c r="O139" s="39"/>
+    </row>
+    <row r="140" ht="23" customHeight="1" spans="1:15">
+      <c r="A140" s="26"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="47"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="48"/>
+      <c r="M140" s="49"/>
+      <c r="N140" s="48"/>
+      <c r="O140" s="39"/>
+    </row>
+    <row r="141" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="26"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="47"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="48"/>
+      <c r="M141" s="49"/>
+      <c r="N141" s="48"/>
+      <c r="O141" s="39"/>
+    </row>
+    <row r="142" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="26"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="47"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="48"/>
+      <c r="M142" s="49"/>
+      <c r="N142" s="48"/>
+      <c r="O142" s="39"/>
+    </row>
+    <row r="143" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="26"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="47"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="48"/>
+      <c r="M143" s="49"/>
+      <c r="N143" s="48"/>
+      <c r="O143" s="39"/>
+    </row>
+    <row r="144" ht="23" customHeight="1" spans="1:15">
+      <c r="A144" s="26"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="47"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="49"/>
+      <c r="N144" s="48"/>
+      <c r="O144" s="39"/>
+    </row>
+    <row r="145" ht="23" customHeight="1" spans="1:15">
+      <c r="A145" s="26"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="47"/>
+      <c r="K145" s="39"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="49"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="39"/>
+    </row>
+    <row r="146" ht="23" customHeight="1" spans="1:15">
+      <c r="A146" s="26"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="47"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="48"/>
+      <c r="M146" s="49"/>
+      <c r="N146" s="48"/>
+      <c r="O146" s="39"/>
+    </row>
+    <row r="147" ht="23" customHeight="1" spans="1:15">
+      <c r="A147" s="26"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="47"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="48"/>
+      <c r="M147" s="49"/>
+      <c r="N147" s="48"/>
+      <c r="O147" s="39"/>
+    </row>
+    <row r="148" ht="23" customHeight="1" spans="1:15">
+      <c r="A148" s="26"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="47"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="48"/>
+      <c r="M148" s="49"/>
+      <c r="N148" s="48"/>
+      <c r="O148" s="39"/>
+    </row>
+    <row r="149" ht="23" customHeight="1" spans="1:15">
+      <c r="A149" s="26"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="47"/>
+      <c r="K149" s="39"/>
+      <c r="L149" s="48"/>
+      <c r="M149" s="49"/>
+      <c r="N149" s="48"/>
+      <c r="O149" s="39"/>
+    </row>
+    <row r="150" ht="23" customHeight="1" spans="1:15">
+      <c r="A150" s="26"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="47"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="48"/>
+      <c r="M150" s="49"/>
+      <c r="N150" s="48"/>
+      <c r="O150" s="39"/>
+    </row>
+    <row r="151" ht="23" customHeight="1" spans="1:15">
+      <c r="A151" s="26"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="48"/>
+      <c r="M151" s="49"/>
+      <c r="N151" s="48"/>
+      <c r="O151" s="39"/>
+    </row>
+    <row r="152" ht="23" customHeight="1" spans="1:15">
+      <c r="A152" s="26"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="48"/>
+      <c r="M152" s="49"/>
+      <c r="N152" s="48"/>
+      <c r="O152" s="39"/>
+    </row>
+    <row r="153" ht="23" customHeight="1" spans="1:15">
+      <c r="A153" s="26"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="48"/>
+      <c r="M153" s="49"/>
+      <c r="N153" s="48"/>
+      <c r="O153" s="39"/>
+    </row>
+    <row r="154" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="26"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="47"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="48"/>
+      <c r="M154" s="49"/>
+      <c r="N154" s="48"/>
+      <c r="O154" s="39"/>
+    </row>
+    <row r="155" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="26"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="47"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="49"/>
+      <c r="N155" s="48"/>
+      <c r="O155" s="39"/>
+    </row>
+    <row r="156" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="26"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="47"/>
+      <c r="K156" s="39"/>
+      <c r="L156" s="48"/>
+      <c r="M156" s="49"/>
+      <c r="N156" s="48"/>
+      <c r="O156" s="39"/>
+    </row>
+    <row r="157" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="26"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="47"/>
+      <c r="K157" s="39"/>
+      <c r="L157" s="48"/>
+      <c r="M157" s="49"/>
+      <c r="N157" s="48"/>
+      <c r="O157" s="39"/>
+    </row>
+    <row r="158" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="26"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="47"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="48"/>
+      <c r="M158" s="49"/>
+      <c r="N158" s="48"/>
+      <c r="O158" s="39"/>
+    </row>
+    <row r="159" ht="23" customHeight="1" spans="1:15">
+      <c r="A159" s="26"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="47"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="48"/>
+      <c r="M159" s="49"/>
+      <c r="N159" s="48"/>
+      <c r="O159" s="39"/>
+    </row>
+    <row r="160" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="26"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="47"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="48"/>
+      <c r="M160" s="49"/>
+      <c r="N160" s="48"/>
+      <c r="O160" s="39"/>
+    </row>
+    <row r="161" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="26"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="47"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="48"/>
+      <c r="M161" s="49"/>
+      <c r="N161" s="48"/>
+      <c r="O161" s="39"/>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="26"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="47"/>
+      <c r="K162" s="39"/>
+      <c r="L162" s="48"/>
+      <c r="M162" s="49"/>
+      <c r="N162" s="48"/>
+      <c r="O162" s="39"/>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="26"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="47"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="48"/>
+      <c r="M163" s="49"/>
+      <c r="N163" s="48"/>
+      <c r="O163" s="39"/>
+    </row>
+    <row r="164" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="26"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="47"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="48"/>
+      <c r="M164" s="49"/>
+      <c r="N164" s="48"/>
+      <c r="O164" s="39"/>
+    </row>
+    <row r="165" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="26"/>
+      <c r="B165" s="37"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+      <c r="J165" s="47"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="48"/>
+      <c r="M165" s="49"/>
+      <c r="N165" s="48"/>
+      <c r="O165" s="39"/>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="26"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+      <c r="J166" s="47"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="48"/>
+      <c r="M166" s="49"/>
+      <c r="N166" s="48"/>
+      <c r="O166" s="39"/>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="26"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="39"/>
+      <c r="L167" s="48"/>
+      <c r="M167" s="49"/>
+      <c r="N167" s="48"/>
+      <c r="O167" s="39"/>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="26"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="47"/>
+      <c r="K168" s="39"/>
+      <c r="L168" s="48"/>
+      <c r="M168" s="49"/>
+      <c r="N168" s="48"/>
+      <c r="O168" s="39"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N3:N4">
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N69:N168">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N7:N68">
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13:C168">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13:D168">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="36.3333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="70.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.3333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="19" style="10" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="10.8333333333333" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.25" spans="1:15">
+      <c r="A1" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
+      <c r="A2" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A4" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="26" customHeight="1" spans="1:15">
+      <c r="A5" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="F5" s="30">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A6" s="26"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>755</v>
+      </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -6691,12 +9780,20 @@
       <c r="N6" s="48"/>
       <c r="O6" s="39"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:15">
+    <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="26"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>757</v>
+      </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -6708,12 +9805,20 @@
       <c r="N7" s="48"/>
       <c r="O7" s="39"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
+    <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="26"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>759</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -6725,12 +9830,20 @@
       <c r="N8" s="48"/>
       <c r="O8" s="39"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:15">
+    <row r="9" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="26"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>761</v>
+      </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -6742,13 +9855,23 @@
       <c r="N9" s="48"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
+    <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A10" s="26"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>764</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -7609,1825 +10732,6 @@
       <c r="N60" s="48"/>
       <c r="O60" s="39"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="26"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="39"/>
-    </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="26"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="39"/>
-    </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="26"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="39"/>
-    </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
-      <c r="A64" s="26"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="39"/>
-    </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="26"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="39"/>
-    </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
-      <c r="A66" s="26"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="39"/>
-    </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
-      <c r="A67" s="26"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="39"/>
-    </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
-      <c r="A68" s="26"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="39"/>
-    </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
-      <c r="A69" s="26"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="39"/>
-    </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
-      <c r="A70" s="26"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="39"/>
-    </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
-      <c r="A71" s="26"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="39"/>
-    </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
-      <c r="A72" s="26"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="39"/>
-    </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="26"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="39"/>
-    </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="26"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="39"/>
-    </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="26"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="39"/>
-    </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="26"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="39"/>
-    </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="26"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="39"/>
-    </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="26"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="39"/>
-    </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="26"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="39"/>
-    </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="26"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="39"/>
-    </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="26"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="48"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="39"/>
-    </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="26"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="39"/>
-    </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="26"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="48"/>
-      <c r="O83" s="39"/>
-    </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="26"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="39"/>
-    </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="26"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="48"/>
-      <c r="O85" s="39"/>
-    </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="26"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="39"/>
-    </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="26"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="48"/>
-      <c r="O87" s="39"/>
-    </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="26"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="39"/>
-    </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
-      <c r="A89" s="26"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="39"/>
-    </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
-      <c r="A90" s="26"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="39"/>
-    </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
-      <c r="A91" s="26"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="48"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="48"/>
-      <c r="O91" s="39"/>
-    </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="26"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="39"/>
-    </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
-      <c r="A93" s="26"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="39"/>
-    </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
-      <c r="A94" s="26"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="39"/>
-    </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
-      <c r="A95" s="26"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="49"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="39"/>
-    </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
-      <c r="A96" s="26"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="49"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="39"/>
-    </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
-      <c r="A97" s="26"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="49"/>
-      <c r="N97" s="48"/>
-      <c r="O97" s="39"/>
-    </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
-      <c r="A98" s="26"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="49"/>
-      <c r="N98" s="48"/>
-      <c r="O98" s="39"/>
-    </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="26"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="49"/>
-      <c r="N99" s="48"/>
-      <c r="O99" s="39"/>
-    </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="26"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="48"/>
-      <c r="M100" s="49"/>
-      <c r="N100" s="48"/>
-      <c r="O100" s="39"/>
-    </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="26"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="47"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="48"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="48"/>
-      <c r="O101" s="39"/>
-    </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="26"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="48"/>
-      <c r="M102" s="49"/>
-      <c r="N102" s="48"/>
-      <c r="O102" s="39"/>
-    </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="26"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="48"/>
-      <c r="M103" s="49"/>
-      <c r="N103" s="48"/>
-      <c r="O103" s="39"/>
-    </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="26"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="48"/>
-      <c r="M104" s="49"/>
-      <c r="N104" s="48"/>
-      <c r="O104" s="39"/>
-    </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
-      <c r="A105" s="26"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="48"/>
-      <c r="M105" s="49"/>
-      <c r="N105" s="48"/>
-      <c r="O105" s="39"/>
-    </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
-      <c r="A106" s="26"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="47"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="48"/>
-      <c r="M106" s="49"/>
-      <c r="N106" s="48"/>
-      <c r="O106" s="39"/>
-    </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
-      <c r="A107" s="26"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="39"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="49"/>
-      <c r="N107" s="48"/>
-      <c r="O107" s="39"/>
-    </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
-      <c r="A108" s="26"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="39"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="49"/>
-      <c r="N108" s="48"/>
-      <c r="O108" s="39"/>
-    </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
-      <c r="A109" s="26"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="48"/>
-      <c r="O109" s="39"/>
-    </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
-      <c r="A110" s="26"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="39"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="49"/>
-      <c r="N110" s="48"/>
-      <c r="O110" s="39"/>
-    </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
-      <c r="A111" s="26"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="47"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="49"/>
-      <c r="N111" s="48"/>
-      <c r="O111" s="39"/>
-    </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="26"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="39"/>
-      <c r="L112" s="48"/>
-      <c r="M112" s="49"/>
-      <c r="N112" s="48"/>
-      <c r="O112" s="39"/>
-    </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
-      <c r="A113" s="26"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="47"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="49"/>
-      <c r="N113" s="48"/>
-      <c r="O113" s="39"/>
-    </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
-      <c r="A114" s="26"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="47"/>
-      <c r="K114" s="39"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="49"/>
-      <c r="N114" s="48"/>
-      <c r="O114" s="39"/>
-    </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
-      <c r="A115" s="26"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="47"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="49"/>
-      <c r="N115" s="48"/>
-      <c r="O115" s="39"/>
-    </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
-      <c r="A116" s="26"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="47"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="49"/>
-      <c r="N116" s="48"/>
-      <c r="O116" s="39"/>
-    </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
-      <c r="A117" s="26"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="48"/>
-      <c r="M117" s="49"/>
-      <c r="N117" s="48"/>
-      <c r="O117" s="39"/>
-    </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
-      <c r="A118" s="26"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="47"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="48"/>
-      <c r="M118" s="49"/>
-      <c r="N118" s="48"/>
-      <c r="O118" s="39"/>
-    </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
-      <c r="A119" s="26"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="47"/>
-      <c r="K119" s="39"/>
-      <c r="L119" s="48"/>
-      <c r="M119" s="49"/>
-      <c r="N119" s="48"/>
-      <c r="O119" s="39"/>
-    </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
-      <c r="A120" s="26"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="47"/>
-      <c r="K120" s="39"/>
-      <c r="L120" s="48"/>
-      <c r="M120" s="49"/>
-      <c r="N120" s="48"/>
-      <c r="O120" s="39"/>
-    </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
-      <c r="A121" s="26"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="48"/>
-      <c r="M121" s="49"/>
-      <c r="N121" s="48"/>
-      <c r="O121" s="39"/>
-    </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="26"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="47"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="49"/>
-      <c r="N122" s="48"/>
-      <c r="O122" s="39"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="26"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="47"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="48"/>
-      <c r="M123" s="49"/>
-      <c r="N123" s="48"/>
-      <c r="O123" s="39"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="26"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="48"/>
-      <c r="M124" s="49"/>
-      <c r="N124" s="48"/>
-      <c r="O124" s="39"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="26"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="48"/>
-      <c r="M125" s="49"/>
-      <c r="N125" s="48"/>
-      <c r="O125" s="39"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="26"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="47"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="48"/>
-      <c r="M126" s="49"/>
-      <c r="N126" s="48"/>
-      <c r="O126" s="39"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="26"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="47"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="48"/>
-      <c r="M127" s="49"/>
-      <c r="N127" s="48"/>
-      <c r="O127" s="39"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="26"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="39"/>
-      <c r="L128" s="48"/>
-      <c r="M128" s="49"/>
-      <c r="N128" s="48"/>
-      <c r="O128" s="39"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="26"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="47"/>
-      <c r="K129" s="39"/>
-      <c r="L129" s="48"/>
-      <c r="M129" s="49"/>
-      <c r="N129" s="48"/>
-      <c r="O129" s="39"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="26"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="47"/>
-      <c r="K130" s="39"/>
-      <c r="L130" s="48"/>
-      <c r="M130" s="49"/>
-      <c r="N130" s="48"/>
-      <c r="O130" s="39"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="26"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="47"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="48"/>
-      <c r="M131" s="49"/>
-      <c r="N131" s="48"/>
-      <c r="O131" s="39"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="26"/>
-      <c r="B132" s="37"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="47"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="48"/>
-      <c r="M132" s="49"/>
-      <c r="N132" s="48"/>
-      <c r="O132" s="39"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="26"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="47"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="48"/>
-      <c r="M133" s="49"/>
-      <c r="N133" s="48"/>
-      <c r="O133" s="39"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="26"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="47"/>
-      <c r="K134" s="39"/>
-      <c r="L134" s="48"/>
-      <c r="M134" s="49"/>
-      <c r="N134" s="48"/>
-      <c r="O134" s="39"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="26"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="47"/>
-      <c r="K135" s="39"/>
-      <c r="L135" s="48"/>
-      <c r="M135" s="49"/>
-      <c r="N135" s="48"/>
-      <c r="O135" s="39"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="26"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="47"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="48"/>
-      <c r="M136" s="49"/>
-      <c r="N136" s="48"/>
-      <c r="O136" s="39"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="26"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="39"/>
-      <c r="L137" s="48"/>
-      <c r="M137" s="49"/>
-      <c r="N137" s="48"/>
-      <c r="O137" s="39"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="26"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="47"/>
-      <c r="K138" s="39"/>
-      <c r="L138" s="48"/>
-      <c r="M138" s="49"/>
-      <c r="N138" s="48"/>
-      <c r="O138" s="39"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="26"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="47"/>
-      <c r="K139" s="39"/>
-      <c r="L139" s="48"/>
-      <c r="M139" s="49"/>
-      <c r="N139" s="48"/>
-      <c r="O139" s="39"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="26"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="47"/>
-      <c r="K140" s="39"/>
-      <c r="L140" s="48"/>
-      <c r="M140" s="49"/>
-      <c r="N140" s="48"/>
-      <c r="O140" s="39"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="26"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="47"/>
-      <c r="K141" s="39"/>
-      <c r="L141" s="48"/>
-      <c r="M141" s="49"/>
-      <c r="N141" s="48"/>
-      <c r="O141" s="39"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="26"/>
-      <c r="B142" s="37"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="39"/>
-      <c r="L142" s="48"/>
-      <c r="M142" s="49"/>
-      <c r="N142" s="48"/>
-      <c r="O142" s="39"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="26"/>
-      <c r="B143" s="37"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="47"/>
-      <c r="K143" s="39"/>
-      <c r="L143" s="48"/>
-      <c r="M143" s="49"/>
-      <c r="N143" s="48"/>
-      <c r="O143" s="39"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="26"/>
-      <c r="B144" s="37"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="47"/>
-      <c r="K144" s="39"/>
-      <c r="L144" s="48"/>
-      <c r="M144" s="49"/>
-      <c r="N144" s="48"/>
-      <c r="O144" s="39"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="26"/>
-      <c r="B145" s="37"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="47"/>
-      <c r="K145" s="39"/>
-      <c r="L145" s="48"/>
-      <c r="M145" s="49"/>
-      <c r="N145" s="48"/>
-      <c r="O145" s="39"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="26"/>
-      <c r="B146" s="37"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="47"/>
-      <c r="K146" s="39"/>
-      <c r="L146" s="48"/>
-      <c r="M146" s="49"/>
-      <c r="N146" s="48"/>
-      <c r="O146" s="39"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="26"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="47"/>
-      <c r="K147" s="39"/>
-      <c r="L147" s="48"/>
-      <c r="M147" s="49"/>
-      <c r="N147" s="48"/>
-      <c r="O147" s="39"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="26"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="47"/>
-      <c r="K148" s="39"/>
-      <c r="L148" s="48"/>
-      <c r="M148" s="49"/>
-      <c r="N148" s="48"/>
-      <c r="O148" s="39"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="26"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="47"/>
-      <c r="K149" s="39"/>
-      <c r="L149" s="48"/>
-      <c r="M149" s="49"/>
-      <c r="N149" s="48"/>
-      <c r="O149" s="39"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="26"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="47"/>
-      <c r="K150" s="39"/>
-      <c r="L150" s="48"/>
-      <c r="M150" s="49"/>
-      <c r="N150" s="48"/>
-      <c r="O150" s="39"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="26"/>
-      <c r="B151" s="37"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="47"/>
-      <c r="K151" s="39"/>
-      <c r="L151" s="48"/>
-      <c r="M151" s="49"/>
-      <c r="N151" s="48"/>
-      <c r="O151" s="39"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="26"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="39"/>
-      <c r="L152" s="48"/>
-      <c r="M152" s="49"/>
-      <c r="N152" s="48"/>
-      <c r="O152" s="39"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="26"/>
-      <c r="B153" s="37"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="39"/>
-      <c r="L153" s="48"/>
-      <c r="M153" s="49"/>
-      <c r="N153" s="48"/>
-      <c r="O153" s="39"/>
-    </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="26"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="47"/>
-      <c r="K154" s="39"/>
-      <c r="L154" s="48"/>
-      <c r="M154" s="49"/>
-      <c r="N154" s="48"/>
-      <c r="O154" s="39"/>
-    </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="26"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="47"/>
-      <c r="K155" s="39"/>
-      <c r="L155" s="48"/>
-      <c r="M155" s="49"/>
-      <c r="N155" s="48"/>
-      <c r="O155" s="39"/>
-    </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="26"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="47"/>
-      <c r="K156" s="39"/>
-      <c r="L156" s="48"/>
-      <c r="M156" s="49"/>
-      <c r="N156" s="48"/>
-      <c r="O156" s="39"/>
-    </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="26"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="47"/>
-      <c r="K157" s="39"/>
-      <c r="L157" s="48"/>
-      <c r="M157" s="49"/>
-      <c r="N157" s="48"/>
-      <c r="O157" s="39"/>
-    </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="26"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="47"/>
-      <c r="K158" s="39"/>
-      <c r="L158" s="48"/>
-      <c r="M158" s="49"/>
-      <c r="N158" s="48"/>
-      <c r="O158" s="39"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="26"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="47"/>
-      <c r="K159" s="39"/>
-      <c r="L159" s="48"/>
-      <c r="M159" s="49"/>
-      <c r="N159" s="48"/>
-      <c r="O159" s="39"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="26"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="47"/>
-      <c r="K160" s="39"/>
-      <c r="L160" s="48"/>
-      <c r="M160" s="49"/>
-      <c r="N160" s="48"/>
-      <c r="O160" s="39"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="26"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="47"/>
-      <c r="K161" s="39"/>
-      <c r="L161" s="48"/>
-      <c r="M161" s="49"/>
-      <c r="N161" s="48"/>
-      <c r="O161" s="39"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="26"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="47"/>
-      <c r="K162" s="39"/>
-      <c r="L162" s="48"/>
-      <c r="M162" s="49"/>
-      <c r="N162" s="48"/>
-      <c r="O162" s="39"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="26"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="47"/>
-      <c r="K163" s="39"/>
-      <c r="L163" s="48"/>
-      <c r="M163" s="49"/>
-      <c r="N163" s="48"/>
-      <c r="O163" s="39"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="26"/>
-      <c r="B164" s="37"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="47"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="48"/>
-      <c r="M164" s="49"/>
-      <c r="N164" s="48"/>
-      <c r="O164" s="39"/>
-    </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="26"/>
-      <c r="B165" s="37"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="47"/>
-      <c r="K165" s="39"/>
-      <c r="L165" s="48"/>
-      <c r="M165" s="49"/>
-      <c r="N165" s="48"/>
-      <c r="O165" s="39"/>
-    </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="26"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
-      <c r="J166" s="47"/>
-      <c r="K166" s="39"/>
-      <c r="L166" s="48"/>
-      <c r="M166" s="49"/>
-      <c r="N166" s="48"/>
-      <c r="O166" s="39"/>
-    </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="26"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
-      <c r="J167" s="47"/>
-      <c r="K167" s="39"/>
-      <c r="L167" s="48"/>
-      <c r="M167" s="49"/>
-      <c r="N167" s="48"/>
-      <c r="O167" s="39"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -9436,55 +10740,55 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N1">
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N4">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N10">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N11:N60">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N68:N167">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N6:N67">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6:C167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C11:C13 C15:C60">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6:D167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D14 D11:D13 D15:D60">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9493,12 +10797,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -9637,10 +10941,10 @@
     </row>
     <row r="5" customFormat="1" ht="26" customHeight="1" spans="1:15">
       <c r="A5" s="26" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>30</v>
@@ -9649,7 +10953,7 @@
         <v>576</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F5" s="30">
         <v>1500</v>
@@ -9667,7 +10971,7 @@
     <row r="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A6" s="26"/>
       <c r="B6" s="21" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>30</v>
@@ -9676,7 +10980,7 @@
         <v>363</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -9692,7 +10996,7 @@
     <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>30</v>
@@ -9701,7 +11005,7 @@
         <v>363</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -9717,7 +11021,7 @@
     <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="26"/>
       <c r="B8" s="21" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>30</v>
@@ -9726,7 +11030,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -9742,7 +11046,7 @@
     <row r="9" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="26"/>
       <c r="B9" s="21" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>30</v>
@@ -9751,7 +11055,7 @@
         <v>253</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -9767,7 +11071,7 @@
     <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="21" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>30</v>
@@ -9776,10 +11080,10 @@
         <v>576</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -9793,10 +11097,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="65" customHeight="1" spans="1:15">
       <c r="A11" s="20" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>30</v>
@@ -9805,7 +11109,7 @@
         <v>253</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -9821,7 +11125,7 @@
     <row r="12" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>30</v>
@@ -9830,7 +11134,7 @@
         <v>363</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -9846,7 +11150,7 @@
     <row r="13" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="20"/>
       <c r="B13" s="33" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>30</v>
@@ -9855,7 +11159,7 @@
         <v>253</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="32"/>
@@ -9871,7 +11175,7 @@
     <row r="14" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="33" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>5</v>
@@ -9880,10 +11184,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -9898,7 +11202,7 @@
     <row r="15" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="33" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>30</v>
@@ -9907,10 +11211,10 @@
         <v>706</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -9924,10 +11228,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="20" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>30</v>
@@ -9936,7 +11240,7 @@
         <v>253</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -9952,7 +11256,7 @@
     <row r="17" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>30</v>
@@ -9961,7 +11265,7 @@
         <v>253</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -9977,7 +11281,7 @@
     <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>30</v>
@@ -9986,10 +11290,10 @@
         <v>707</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -10004,7 +11308,7 @@
     <row r="19" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>8</v>
@@ -10013,10 +11317,10 @@
         <v>656</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -10031,7 +11335,7 @@
     <row r="20" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>30</v>
@@ -10040,7 +11344,7 @@
         <v>253</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -10056,7 +11360,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>30</v>
@@ -10065,7 +11369,7 @@
         <v>253</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="32"/>
@@ -10081,7 +11385,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>30</v>
@@ -10090,7 +11394,7 @@
         <v>253</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="32"/>
@@ -10106,7 +11410,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>30</v>
@@ -10115,10 +11419,10 @@
         <v>707</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -10133,7 +11437,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>30</v>
@@ -10142,10 +11446,10 @@
         <v>707</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -10160,7 +11464,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>30</v>
@@ -10169,10 +11473,10 @@
         <v>707</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -10187,7 +11491,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>30</v>
@@ -10196,7 +11500,7 @@
         <v>253</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="32"/>
@@ -10211,10 +11515,10 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="20" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>30</v>
@@ -10223,7 +11527,7 @@
         <v>253</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="32"/>
@@ -10239,7 +11543,7 @@
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="26"/>
       <c r="B28" s="37" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>30</v>
@@ -10248,7 +11552,7 @@
         <v>253</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -10264,7 +11568,7 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="26"/>
       <c r="B29" s="37" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>30</v>
@@ -10273,10 +11577,10 @@
         <v>707</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -10291,7 +11595,7 @@
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="26"/>
       <c r="B30" s="37" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>30</v>
@@ -10300,7 +11604,7 @@
         <v>253</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -10316,7 +11620,7 @@
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="26"/>
       <c r="B31" s="37" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>30</v>
@@ -10325,10 +11629,10 @@
         <v>707</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -10343,7 +11647,7 @@
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="26"/>
       <c r="B32" s="37" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>30</v>
@@ -10352,7 +11656,7 @@
         <v>253</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -10367,10 +11671,10 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="26" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>30</v>
@@ -10379,7 +11683,7 @@
         <v>253</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -10395,7 +11699,7 @@
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="26"/>
       <c r="B34" s="37" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>30</v>
@@ -10404,7 +11708,7 @@
         <v>253</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -10420,7 +11724,7 @@
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="26"/>
       <c r="B35" s="37" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>30</v>
@@ -10429,7 +11733,7 @@
         <v>253</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -10445,7 +11749,7 @@
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="26"/>
       <c r="B36" s="37" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>30</v>
@@ -10454,7 +11758,7 @@
         <v>253</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -10469,10 +11773,10 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="26" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>30</v>
@@ -10481,7 +11785,7 @@
         <v>253</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="29"/>
@@ -10496,10 +11800,10 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="26" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>30</v>
@@ -10508,7 +11812,7 @@
         <v>253</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="29"/>
@@ -10523,10 +11827,10 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="26" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>30</v>
@@ -10535,10 +11839,10 @@
         <v>576</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>838</v>
+        <v>750</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
@@ -10553,7 +11857,7 @@
     <row r="40" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="26"/>
       <c r="B40" s="37" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
@@ -10562,7 +11866,7 @@
         <v>363</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
@@ -11434,57 +12738,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N20">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N27">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N90">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/artifact/script/AddProductPage.xlsx
+++ b/tests/artifact/script/AddProductPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="845">
   <si>
     <t>target</t>
   </si>
@@ -2359,6 +2359,10 @@
   </si>
   <si>
     <t>rowsOfColumn=${columnBusiness}</t>
+  </si>
+  <si>
+    <t>rowsOfColumn=${columnBusiness}
+columnName=${columnName}</t>
   </si>
   <si>
     <t>click on add button in Contact page</t>
@@ -6522,10 +6526,10 @@
   <sheetPr/>
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:E6"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9589,10 +9593,10 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9855,7 +9859,7 @@
       <c r="N9" s="48"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="10" customFormat="1" ht="43.5" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="21" t="s">
         <v>762</v>
@@ -9870,7 +9874,7 @@
         <v>763</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -10803,7 +10807,7 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -11071,7 +11075,7 @@
     <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="21" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>30</v>
@@ -11080,10 +11084,10 @@
         <v>576</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -11097,10 +11101,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="65" customHeight="1" spans="1:15">
       <c r="A11" s="20" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>30</v>
@@ -11109,7 +11113,7 @@
         <v>253</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -11125,7 +11129,7 @@
     <row r="12" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>30</v>
@@ -11134,7 +11138,7 @@
         <v>363</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -11150,7 +11154,7 @@
     <row r="13" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="20"/>
       <c r="B13" s="33" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>30</v>
@@ -11159,7 +11163,7 @@
         <v>253</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="32"/>
@@ -11175,7 +11179,7 @@
     <row r="14" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>5</v>
@@ -11184,10 +11188,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -11202,7 +11206,7 @@
     <row r="15" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="33" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>30</v>
@@ -11211,10 +11215,10 @@
         <v>706</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -11228,10 +11232,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="20" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>30</v>
@@ -11240,7 +11244,7 @@
         <v>253</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -11256,7 +11260,7 @@
     <row r="17" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>30</v>
@@ -11265,7 +11269,7 @@
         <v>253</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -11281,7 +11285,7 @@
     <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>30</v>
@@ -11290,10 +11294,10 @@
         <v>707</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -11308,7 +11312,7 @@
     <row r="19" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>8</v>
@@ -11317,10 +11321,10 @@
         <v>656</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -11335,7 +11339,7 @@
     <row r="20" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>30</v>
@@ -11344,7 +11348,7 @@
         <v>253</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -11360,7 +11364,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>30</v>
@@ -11369,7 +11373,7 @@
         <v>253</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="32"/>
@@ -11385,7 +11389,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>30</v>
@@ -11394,7 +11398,7 @@
         <v>253</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="32"/>
@@ -11410,7 +11414,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>30</v>
@@ -11419,10 +11423,10 @@
         <v>707</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -11437,7 +11441,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>30</v>
@@ -11446,10 +11450,10 @@
         <v>707</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -11464,7 +11468,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>30</v>
@@ -11473,10 +11477,10 @@
         <v>707</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -11491,7 +11495,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>30</v>
@@ -11500,7 +11504,7 @@
         <v>253</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="32"/>
@@ -11515,10 +11519,10 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>30</v>
@@ -11527,7 +11531,7 @@
         <v>253</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="32"/>
@@ -11543,7 +11547,7 @@
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="26"/>
       <c r="B28" s="37" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>30</v>
@@ -11552,7 +11556,7 @@
         <v>253</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -11568,7 +11572,7 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="26"/>
       <c r="B29" s="37" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>30</v>
@@ -11577,10 +11581,10 @@
         <v>707</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -11595,7 +11599,7 @@
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="26"/>
       <c r="B30" s="37" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>30</v>
@@ -11604,7 +11608,7 @@
         <v>253</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -11620,7 +11624,7 @@
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="26"/>
       <c r="B31" s="37" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>30</v>
@@ -11629,10 +11633,10 @@
         <v>707</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -11647,7 +11651,7 @@
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="26"/>
       <c r="B32" s="37" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>30</v>
@@ -11656,7 +11660,7 @@
         <v>253</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -11671,10 +11675,10 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>30</v>
@@ -11683,7 +11687,7 @@
         <v>253</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -11699,7 +11703,7 @@
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="26"/>
       <c r="B34" s="37" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>30</v>
@@ -11708,7 +11712,7 @@
         <v>253</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -11724,7 +11728,7 @@
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="26"/>
       <c r="B35" s="37" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>30</v>
@@ -11733,7 +11737,7 @@
         <v>253</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -11749,7 +11753,7 @@
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="26"/>
       <c r="B36" s="37" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>30</v>
@@ -11758,7 +11762,7 @@
         <v>253</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -11773,10 +11777,10 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="26" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>30</v>
@@ -11785,7 +11789,7 @@
         <v>253</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="29"/>
@@ -11800,10 +11804,10 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="26" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>30</v>
@@ -11812,7 +11816,7 @@
         <v>253</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="29"/>
@@ -11827,10 +11831,10 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="26" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>30</v>
@@ -11839,7 +11843,7 @@
         <v>576</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>750</v>
@@ -11857,7 +11861,7 @@
     <row r="40" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="26"/>
       <c r="B40" s="37" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
@@ -11866,7 +11870,7 @@
         <v>363</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>

--- a/tests/artifact/script/AddProductPage.xlsx
+++ b/tests/artifact/script/AddProductPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="849">
   <si>
     <t>target</t>
   </si>
@@ -2334,44 +2334,56 @@
     <t>${org.hamburger}</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>click on workflow</t>
   </si>
   <si>
     <t>${org.workflow}</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>Click on Business</t>
   </si>
   <si>
-    <t>${click.Business}</t>
-  </si>
-  <si>
-    <t>Then User can see the Business Details Page</t>
-  </si>
-  <si>
-    <t>${Validate.BusinessPage}</t>
+    <t>${click.Admin}</t>
+  </si>
+  <si>
+    <t>Click on audit logs</t>
+  </si>
+  <si>
+    <t>${click.AuditLogs}</t>
   </si>
   <si>
     <t>Now fetch the data from the business comlumn</t>
   </si>
   <si>
     <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|columnSortComparision)</t>
-  </si>
-  <si>
-    <t>rowsOfColumn=${columnBusiness}</t>
   </si>
   <si>
     <t>rowsOfColumn=${columnBusiness}
 columnName=${columnName}</t>
   </si>
   <si>
+    <t>Then User can see the Business Details Page</t>
+  </si>
+  <si>
+    <t>${validate.AuditLogsPage}</t>
+  </si>
+  <si>
+    <t>${click.Business}</t>
+  </si>
+  <si>
+    <t>${Validate.BusinessPage}</t>
+  </si>
+  <si>
     <t>click on add button in Contact page</t>
   </si>
   <si>
     <t>${click.addNewProduct}</t>
-  </si>
-  <si>
-    <t>3000</t>
   </si>
   <si>
     <t>Add Business Item Details for Product Page</t>
@@ -2612,7 +2624,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2674,6 +2686,36 @@
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3181,135 +3223,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3483,11 +3525,44 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6524,12 +6599,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O168"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6679,7 +6754,7 @@
       <c r="E5" s="32" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="52" t="s">
         <v>749</v>
       </c>
       <c r="G5" s="29"/>
@@ -6694,7 +6769,7 @@
     </row>
     <row r="6" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A6" s="20"/>
-      <c r="B6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="31" t="s">
         <v>30</v>
       </c>
@@ -6704,7 +6779,7 @@
       <c r="E6" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -6732,7 +6807,7 @@
         <v>753</v>
       </c>
       <c r="F7" s="30">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -6771,17 +6846,15 @@
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="26"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>756</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>757</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -6794,10 +6867,10 @@
       <c r="N9" s="48"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
+    <row r="10" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>30</v>
@@ -6806,7 +6879,7 @@
         <v>363</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -6819,19 +6892,17 @@
       <c r="N10" s="48"/>
       <c r="O10" s="39"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="21" t="s">
-        <v>760</v>
-      </c>
+    <row r="11" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="28" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>253</v>
+        <v>540</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -6844,23 +6915,21 @@
       <c r="N11" s="48"/>
       <c r="O11" s="39"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row r="12" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="26"/>
       <c r="B12" s="21" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>763</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>764</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -6871,12 +6940,18 @@
       <c r="N12" s="48"/>
       <c r="O12" s="39"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
+    <row r="13" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="26"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>759</v>
+      </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -6888,12 +6963,20 @@
       <c r="N13" s="48"/>
       <c r="O13" s="39"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+    <row r="14" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>763</v>
+      </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -6905,12 +6988,18 @@
       <c r="N14" s="48"/>
       <c r="O14" s="39"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+    <row r="15" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>756</v>
+      </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -6922,13 +7011,23 @@
       <c r="N15" s="48"/>
       <c r="O15" s="39"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row r="16" s="12" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="26"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>766</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -6939,73 +7038,73 @@
       <c r="N16" s="48"/>
       <c r="O16" s="39"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="39"/>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="39"/>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="39"/>
-    </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="39"/>
+    <row r="17" s="51" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="59"/>
+    </row>
+    <row r="18" s="51" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="59"/>
+    </row>
+    <row r="19" s="51" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="59"/>
+    </row>
+    <row r="20" s="51" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="26"/>
@@ -9522,6 +9621,57 @@
       <c r="M168" s="49"/>
       <c r="N168" s="48"/>
       <c r="O168" s="39"/>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="26"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+      <c r="I169" s="29"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="39"/>
+      <c r="L169" s="48"/>
+      <c r="M169" s="49"/>
+      <c r="N169" s="48"/>
+      <c r="O169" s="39"/>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="26"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="47"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="48"/>
+      <c r="M170" s="49"/>
+      <c r="N170" s="48"/>
+      <c r="O170" s="39"/>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="26"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="49"/>
+      <c r="N171" s="48"/>
+      <c r="O171" s="39"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9553,18 +9703,18 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N69:N168">
+  <conditionalFormatting sqref="N72:N171">
     <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N7:N68">
+  <conditionalFormatting sqref="N1 N7:N71">
     <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -9576,10 +9726,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13:C168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21:C171">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13:D168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21:D171">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9591,12 +9741,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9787,7 +9937,7 @@
     <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>30</v>
@@ -9796,7 +9946,7 @@
         <v>363</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -9812,7 +9962,7 @@
     <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="26"/>
       <c r="B8" s="21" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>30</v>
@@ -9821,7 +9971,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -9836,17 +9986,15 @@
     </row>
     <row r="9" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="26"/>
-      <c r="B9" s="21" t="s">
-        <v>760</v>
-      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="28" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>253</v>
+        <v>540</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -9859,23 +10007,21 @@
       <c r="N9" s="48"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" customFormat="1" ht="43.5" spans="1:15">
+    <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="21" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>763</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>765</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -9886,13 +10032,23 @@
       <c r="N10" s="48"/>
       <c r="O10" s="39"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row r="11" customFormat="1" ht="43.5" spans="1:15">
       <c r="A11" s="26"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>766</v>
+      </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -10735,6 +10891,23 @@
       <c r="M60" s="49"/>
       <c r="N60" s="48"/>
       <c r="O60" s="39"/>
+    </row>
+    <row r="61" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="26"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="39"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -10766,7 +10939,7 @@
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N10">
+  <conditionalFormatting sqref="N5:N11">
     <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -10777,22 +10950,22 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N60">
+  <conditionalFormatting sqref="N12:N61">
     <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C11:C13 C15:C60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C15 C12:C14 C16:C61">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D14 D11:D13 D15:D60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D15 D12:D14 D16:D61">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11000,7 +11173,7 @@
     <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>30</v>
@@ -11009,7 +11182,7 @@
         <v>363</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -11025,7 +11198,7 @@
     <row r="8" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="26"/>
       <c r="B8" s="21" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>30</v>
@@ -11034,7 +11207,7 @@
         <v>363</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -11050,7 +11223,7 @@
     <row r="9" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="26"/>
       <c r="B9" s="21" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>30</v>
@@ -11059,7 +11232,7 @@
         <v>253</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -11075,7 +11248,7 @@
     <row r="10" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="21" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>30</v>
@@ -11084,10 +11257,10 @@
         <v>576</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -11101,10 +11274,10 @@
     </row>
     <row r="11" s="3" customFormat="1" ht="65" customHeight="1" spans="1:15">
       <c r="A11" s="20" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>30</v>
@@ -11113,7 +11286,7 @@
         <v>253</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -11129,7 +11302,7 @@
     <row r="12" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>30</v>
@@ -11138,7 +11311,7 @@
         <v>363</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -11154,7 +11327,7 @@
     <row r="13" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="20"/>
       <c r="B13" s="33" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>30</v>
@@ -11163,7 +11336,7 @@
         <v>253</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="32"/>
@@ -11179,7 +11352,7 @@
     <row r="14" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="33" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>5</v>
@@ -11188,10 +11361,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -11206,7 +11379,7 @@
     <row r="15" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="33" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>30</v>
@@ -11215,10 +11388,10 @@
         <v>706</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
@@ -11232,10 +11405,10 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="20" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>30</v>
@@ -11244,7 +11417,7 @@
         <v>253</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -11260,7 +11433,7 @@
     <row r="17" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>30</v>
@@ -11269,7 +11442,7 @@
         <v>253</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -11285,7 +11458,7 @@
     <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>30</v>
@@ -11294,10 +11467,10 @@
         <v>707</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -11312,7 +11485,7 @@
     <row r="19" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>8</v>
@@ -11321,10 +11494,10 @@
         <v>656</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -11339,7 +11512,7 @@
     <row r="20" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>30</v>
@@ -11348,7 +11521,7 @@
         <v>253</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -11364,7 +11537,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>30</v>
@@ -11373,7 +11546,7 @@
         <v>253</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="32"/>
@@ -11389,7 +11562,7 @@
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>30</v>
@@ -11398,7 +11571,7 @@
         <v>253</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="32"/>
@@ -11414,7 +11587,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>30</v>
@@ -11423,10 +11596,10 @@
         <v>707</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -11441,7 +11614,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>30</v>
@@ -11450,10 +11623,10 @@
         <v>707</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -11468,7 +11641,7 @@
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>30</v>
@@ -11477,10 +11650,10 @@
         <v>707</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -11495,7 +11668,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>30</v>
@@ -11504,7 +11677,7 @@
         <v>253</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="32"/>
@@ -11519,10 +11692,10 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="20" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>30</v>
@@ -11531,7 +11704,7 @@
         <v>253</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="32"/>
@@ -11547,7 +11720,7 @@
     <row r="28" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="26"/>
       <c r="B28" s="37" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>30</v>
@@ -11556,7 +11729,7 @@
         <v>253</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -11572,7 +11745,7 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="26"/>
       <c r="B29" s="37" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>30</v>
@@ -11581,10 +11754,10 @@
         <v>707</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -11599,7 +11772,7 @@
     <row r="30" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="26"/>
       <c r="B30" s="37" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>30</v>
@@ -11608,7 +11781,7 @@
         <v>253</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
@@ -11624,7 +11797,7 @@
     <row r="31" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="26"/>
       <c r="B31" s="37" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>30</v>
@@ -11633,10 +11806,10 @@
         <v>707</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -11651,7 +11824,7 @@
     <row r="32" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="26"/>
       <c r="B32" s="37" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>30</v>
@@ -11660,7 +11833,7 @@
         <v>253</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -11675,10 +11848,10 @@
     </row>
     <row r="33" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="26" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>30</v>
@@ -11687,7 +11860,7 @@
         <v>253</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -11703,7 +11876,7 @@
     <row r="34" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="26"/>
       <c r="B34" s="37" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>30</v>
@@ -11712,7 +11885,7 @@
         <v>253</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -11728,7 +11901,7 @@
     <row r="35" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="26"/>
       <c r="B35" s="37" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>30</v>
@@ -11737,7 +11910,7 @@
         <v>253</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -11753,7 +11926,7 @@
     <row r="36" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="26"/>
       <c r="B36" s="37" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>30</v>
@@ -11762,7 +11935,7 @@
         <v>253</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
@@ -11777,10 +11950,10 @@
     </row>
     <row r="37" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="26" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>30</v>
@@ -11789,7 +11962,7 @@
         <v>253</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="29"/>
@@ -11804,10 +11977,10 @@
     </row>
     <row r="38" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="26" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>30</v>
@@ -11816,7 +11989,7 @@
         <v>253</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="29"/>
@@ -11831,10 +12004,10 @@
     </row>
     <row r="39" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="26" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>30</v>
@@ -11843,7 +12016,7 @@
         <v>576</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>750</v>
@@ -11861,7 +12034,7 @@
     <row r="40" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="26"/>
       <c r="B40" s="37" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
@@ -11870,7 +12043,7 @@
         <v>363</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
